--- a/.Courant/Tables de routage.xlsx
+++ b/.Courant/Tables de routage.xlsx
@@ -23,10 +23,109 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+  <si>
+    <t>Masque de sous-réseau</t>
+  </si>
+  <si>
+    <t>192.168.128.0</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>10.0.0.3</t>
+  </si>
+  <si>
+    <t>192.168.128.128</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>172.16.0.4</t>
+  </si>
+  <si>
+    <t>FortiGate 1</t>
+  </si>
+  <si>
+    <t>FortiGate 2</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>IPSEC_TO_Princ</t>
+  </si>
+  <si>
+    <t>Réseau destination</t>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>172.16.0.1</t>
+  </si>
+  <si>
+    <t>Commentaire/Interface</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>WANPrincipal</t>
+  </si>
+  <si>
+    <t>WANSecondaire</t>
+  </si>
+  <si>
+    <t>IPSEC_TO_Sec</t>
+  </si>
+  <si>
+    <t>192.168.228..0</t>
+  </si>
+  <si>
+    <t>Router Cisco 1900 (1.1)</t>
+  </si>
+  <si>
+    <t>Switch-Routeur Cisco 3560(1.2)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +437,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>